--- a/Data/access_list.xlsx
+++ b/Data/access_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/UEFA_Rankings/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{C14F0406-73EE-4E57-A883-5CF8202EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90F2179-7F3A-4BA7-9F7A-A1F1124629AE}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{C14F0406-73EE-4E57-A883-5CF8202EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC09A3AC-82EC-444D-B44A-AE9159E74487}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9EBCBA20-F37A-4829-B7B9-7FF32AFFA185}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9EBCBA20-F37A-4829-B7B9-7FF32AFFA185}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="23">
   <si>
     <t>Ranking</t>
   </si>
@@ -84,18 +84,12 @@
     <t>CL Q2 League Path</t>
   </si>
   <si>
-    <t>ECL Q3</t>
-  </si>
-  <si>
     <t>ECL Q2</t>
   </si>
   <si>
     <t>CL Playoff Champions</t>
   </si>
   <si>
-    <t>CL Q3 Champions</t>
-  </si>
-  <si>
     <t>CL Q2 Champions</t>
   </si>
   <si>
@@ -105,10 +99,10 @@
     <t>ECL Q1</t>
   </si>
   <si>
-    <t>CL Preliminary Round</t>
-  </si>
-  <si>
     <t>EL Q2</t>
+  </si>
+  <si>
+    <t>EL Q1</t>
   </si>
 </sst>
 </file>
@@ -462,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503C1C29-0ADA-4104-88F5-6C9A3DB5371C}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,10 +660,10 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
@@ -689,10 +683,10 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -712,10 +706,10 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -735,10 +729,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -758,10 +752,10 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -775,16 +769,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -798,19 +792,19 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -821,16 +815,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -844,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -867,16 +861,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -890,16 +884,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -910,16 +904,16 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -930,16 +924,16 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -950,16 +944,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -970,16 +964,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -990,16 +984,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1010,16 +1004,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1030,16 +1024,16 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1050,16 +1044,16 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1070,16 +1064,16 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1090,16 +1084,16 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1110,16 +1104,16 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1130,16 +1124,16 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1150,16 +1144,16 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1170,16 +1164,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1190,16 +1184,16 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1210,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1230,16 +1224,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1250,16 +1244,16 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1270,16 +1264,16 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1290,16 +1284,16 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1310,16 +1304,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1330,16 +1324,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1350,16 +1344,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1370,16 +1364,16 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1390,16 +1384,16 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1410,16 +1404,16 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1430,16 +1424,16 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1450,16 +1444,16 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1470,16 +1464,16 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1490,16 +1484,16 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1510,16 +1504,16 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -1530,16 +1524,16 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -1550,16 +1544,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -1570,16 +1564,16 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -1590,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -1607,13 +1601,13 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -1624,13 +1618,13 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -1641,13 +1635,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -1658,13 +1652,13 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
